--- a/technique/Traditional/C6.xlsx
+++ b/technique/Traditional/C6.xlsx
@@ -546,43 +546,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>127.60440052</v>
+        <v>127.60440307</v>
       </c>
       <c r="C2">
-        <v>123.28340697</v>
+        <v>121.16442755</v>
       </c>
       <c r="D2">
-        <v>4.3209935439</v>
+        <v>6.4399755215</v>
       </c>
       <c r="E2">
-        <v>95.124862888</v>
+        <v>99.59095519900001</v>
       </c>
       <c r="F2">
-        <v>15.645086487</v>
+        <v>11.178994177</v>
       </c>
       <c r="G2">
-        <v>28.645681676</v>
+        <v>28.645667859</v>
       </c>
       <c r="H2">
-        <v>88.532293262</v>
+        <v>86.185194194</v>
       </c>
       <c r="I2">
-        <v>11.467702112</v>
+        <v>13.814805793</v>
       </c>
       <c r="J2">
-        <v>99.99999537399999</v>
+        <v>99.999999987</v>
       </c>
       <c r="K2">
-        <v>0.32738588713</v>
+        <v>0.3273858245</v>
       </c>
       <c r="L2">
-        <v>10.912860325</v>
+        <v>10.912860804</v>
       </c>
       <c r="M2">
-        <v>4.6273274287</v>
+        <v>4.6273181487</v>
       </c>
       <c r="N2">
-        <v>327.38588713</v>
+        <v>327.3858245</v>
       </c>
       <c r="O2">
         <v>335.5862448001135</v>
@@ -594,37 +594,37 @@
         <v>74.90605902896169</v>
       </c>
       <c r="R2">
-        <v>31.433782143</v>
+        <v>31.433775491</v>
       </c>
       <c r="S2">
         <v>8.0162400213</v>
       </c>
       <c r="T2">
-        <v>2.9500052135</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>0.80750591958</v>
+        <v>0.69412791263</v>
       </c>
       <c r="V2">
-        <v>1.2252617696</v>
+        <v>1.2252618187</v>
       </c>
       <c r="W2">
-        <v>1.2252633843</v>
+        <v>1.2252618169</v>
       </c>
       <c r="X2">
-        <v>0.236</v>
+        <v>0.375</v>
       </c>
       <c r="Y2">
-        <v>0.236</v>
+        <v>0.375</v>
       </c>
       <c r="Z2">
-        <v>2039.876003744903</v>
+        <v>2059.056801573101</v>
       </c>
       <c r="AA2">
-        <v>65.8744957244448</v>
+        <v>65.87449704085681</v>
       </c>
       <c r="AB2">
-        <v>0.7850787405118558</v>
+        <v>0.7850786323601131</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -632,43 +632,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>136.50136575</v>
+        <v>136.50133145</v>
       </c>
       <c r="C3">
-        <v>124.74034201</v>
+        <v>125.36811198</v>
       </c>
       <c r="D3">
-        <v>11.761023744</v>
+        <v>11.133219471</v>
       </c>
       <c r="E3">
-        <v>77.673638114</v>
+        <v>77.34416017700001</v>
       </c>
       <c r="F3">
-        <v>9.7403280718</v>
+        <v>10.069806009</v>
       </c>
       <c r="G3">
-        <v>26.283482082</v>
+        <v>26.283478088</v>
       </c>
       <c r="H3">
-        <v>90.06753779500001</v>
+        <v>89.769249753</v>
       </c>
       <c r="I3">
-        <v>9.9324455868</v>
+        <v>10.230750139</v>
       </c>
       <c r="J3">
-        <v>99.999983382</v>
+        <v>99.99999989200001</v>
       </c>
       <c r="K3">
-        <v>0.3273860309</v>
+        <v>0.3273858257</v>
       </c>
       <c r="L3">
-        <v>10.912857684</v>
+        <v>10.91286078</v>
       </c>
       <c r="M3">
-        <v>3.1442437854</v>
+        <v>3.1442382181</v>
       </c>
       <c r="N3">
-        <v>327.3860309</v>
+        <v>327.3858257</v>
       </c>
       <c r="O3">
         <v>318.7649999999999</v>
@@ -680,37 +680,37 @@
         <v>50.77931993551874</v>
       </c>
       <c r="R3">
-        <v>31.433797403</v>
+        <v>31.433775618</v>
       </c>
       <c r="S3">
         <v>7.5007170188</v>
       </c>
       <c r="T3">
-        <v>2.950020998</v>
+        <v>3.7500001225</v>
       </c>
       <c r="U3">
-        <v>0.82501018942</v>
+        <v>0.72250882423</v>
       </c>
       <c r="V3">
-        <v>1.2451018893</v>
+        <v>1.2451019681</v>
       </c>
       <c r="W3">
-        <v>1.2451079141</v>
+        <v>1.2451020063</v>
       </c>
       <c r="X3">
-        <v>0.218</v>
+        <v>0.346</v>
       </c>
       <c r="Y3">
-        <v>0.218</v>
+        <v>0.346</v>
       </c>
       <c r="Z3">
-        <v>2098.972839012157</v>
+        <v>2118.999449653529</v>
       </c>
       <c r="AA3">
-        <v>70.46746505477999</v>
+        <v>70.46744734774801</v>
       </c>
       <c r="AB3">
-        <v>0.8586196123671814</v>
+        <v>0.8586196090173921</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -718,43 +718,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>123.02824535</v>
+        <v>123.02839033</v>
       </c>
       <c r="C4">
-        <v>117.70471553</v>
+        <v>111.67741797</v>
       </c>
       <c r="D4">
-        <v>5.3235298138</v>
+        <v>11.350972356</v>
       </c>
       <c r="E4">
-        <v>74.29050202800001</v>
+        <v>78.528097379</v>
       </c>
       <c r="F4">
-        <v>13.817534397</v>
+        <v>9.5799390452</v>
       </c>
       <c r="G4">
-        <v>26.16749397</v>
+        <v>26.167510008</v>
       </c>
       <c r="H4">
-        <v>87.70728846999999</v>
+        <v>89.496974642</v>
       </c>
       <c r="I4">
-        <v>12.292711419</v>
+        <v>10.502956904</v>
       </c>
       <c r="J4">
-        <v>99.99999988899999</v>
+        <v>99.999931546</v>
       </c>
       <c r="K4">
-        <v>0.32738582581</v>
+        <v>0.32738670004</v>
       </c>
       <c r="L4">
-        <v>10.912860796</v>
+        <v>10.912859518</v>
       </c>
       <c r="M4">
-        <v>3.0725154329</v>
+        <v>3.0725266067</v>
       </c>
       <c r="N4">
-        <v>327.38582581</v>
+        <v>327.38670004</v>
       </c>
       <c r="O4">
         <v>305.87</v>
@@ -766,37 +766,37 @@
         <v>50.77931993551874</v>
       </c>
       <c r="R4">
-        <v>31.43377563</v>
+        <v>31.433868306</v>
       </c>
       <c r="S4">
         <v>7.5007170188</v>
       </c>
       <c r="T4">
-        <v>2.9500000947</v>
+        <v>3.7500638002</v>
       </c>
       <c r="U4">
-        <v>0.84289052311</v>
+        <v>0.7513969458999999</v>
       </c>
       <c r="V4">
-        <v>1.2150569861</v>
+        <v>1.2150566665</v>
       </c>
       <c r="W4">
-        <v>1.2150570156</v>
+        <v>1.2150728616</v>
       </c>
       <c r="X4">
-        <v>0.191</v>
+        <v>0.302</v>
       </c>
       <c r="Y4">
-        <v>0.191</v>
+        <v>0.302</v>
       </c>
       <c r="Z4">
-        <v>1994.076886654668</v>
+        <v>2015.343744026792</v>
       </c>
       <c r="AA4">
-        <v>63.51210137948401</v>
+        <v>63.5121762239592</v>
       </c>
       <c r="AB4">
-        <v>0.8513137318574611</v>
+        <v>0.8513137398058495</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -804,43 +804,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>109.69240112</v>
+        <v>109.69237667</v>
       </c>
       <c r="C5">
-        <v>104.92290133</v>
+        <v>98.36746516300001</v>
       </c>
       <c r="D5">
-        <v>4.7694997915</v>
+        <v>11.324911503</v>
       </c>
       <c r="E5">
-        <v>74.073197451</v>
+        <v>78.830097197</v>
       </c>
       <c r="F5">
-        <v>14.728909212</v>
+        <v>9.972009466199999</v>
       </c>
       <c r="G5">
-        <v>25.914341568</v>
+        <v>25.914339112</v>
       </c>
       <c r="H5">
-        <v>88.064559651</v>
+        <v>89.86309852799999</v>
       </c>
       <c r="I5">
-        <v>11.935411534</v>
+        <v>10.136883445</v>
       </c>
       <c r="J5">
-        <v>99.99997118500001</v>
+        <v>99.999981973</v>
       </c>
       <c r="K5">
-        <v>0.32738624921</v>
+        <v>0.32738609701</v>
       </c>
       <c r="L5">
-        <v>10.912863401</v>
+        <v>10.912862414</v>
       </c>
       <c r="M5">
-        <v>2.9163150394</v>
+        <v>2.9163145145</v>
       </c>
       <c r="N5">
-        <v>327.38624921</v>
+        <v>327.38609701</v>
       </c>
       <c r="O5">
         <v>292.975</v>
@@ -852,37 +852,37 @@
         <v>50.77931993551873</v>
       </c>
       <c r="R5">
-        <v>31.433820537</v>
+        <v>31.433804414</v>
       </c>
       <c r="S5">
         <v>7.5007170188</v>
       </c>
       <c r="T5">
-        <v>2.9500233004</v>
+        <v>3.7500173229</v>
       </c>
       <c r="U5">
-        <v>0.76549198487</v>
+        <v>0.62962182922</v>
       </c>
       <c r="V5">
-        <v>1.1853177834</v>
+        <v>1.1853178304</v>
       </c>
       <c r="W5">
-        <v>1.185324658</v>
+        <v>1.1853223912</v>
       </c>
       <c r="X5">
-        <v>0.278</v>
+        <v>0.439</v>
       </c>
       <c r="Y5">
-        <v>0.278</v>
+        <v>0.439</v>
       </c>
       <c r="Z5">
-        <v>1881.003164146406</v>
+        <v>1898.523911952677</v>
       </c>
       <c r="AA5">
-        <v>56.62760515418881</v>
+        <v>56.62759253212081</v>
       </c>
       <c r="AB5">
-        <v>0.8444399703903419</v>
+        <v>0.8444399710127177</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -890,43 +890,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95.8530458</v>
+        <v>95.853019671</v>
       </c>
       <c r="C6">
-        <v>81.309365297</v>
+        <v>93.058193227</v>
       </c>
       <c r="D6">
-        <v>14.543680503</v>
+        <v>2.7948264434</v>
       </c>
       <c r="E6">
-        <v>81.84986650099999</v>
+        <v>71.558944162</v>
       </c>
       <c r="F6">
-        <v>7.6463104016</v>
+        <v>17.93723274</v>
       </c>
       <c r="G6">
-        <v>26.164603045</v>
+        <v>26.164600193</v>
       </c>
       <c r="H6">
-        <v>90.756165157</v>
+        <v>89.29826241799999</v>
       </c>
       <c r="I6">
-        <v>9.2438142053</v>
+        <v>10.70172883</v>
       </c>
       <c r="J6">
-        <v>99.999979362</v>
+        <v>99.999991247</v>
       </c>
       <c r="K6">
-        <v>0.32738610354</v>
+        <v>0.32738594241</v>
       </c>
       <c r="L6">
-        <v>10.912859342</v>
+        <v>10.912859884</v>
       </c>
       <c r="M6">
-        <v>3.0707304631</v>
+        <v>3.0707281608</v>
       </c>
       <c r="N6">
-        <v>327.38610354</v>
+        <v>327.38594241</v>
       </c>
       <c r="O6">
         <v>280.0799999999999</v>
@@ -938,37 +938,37 @@
         <v>50.77931993551873</v>
       </c>
       <c r="R6">
-        <v>31.43380511</v>
+        <v>31.433788013</v>
       </c>
       <c r="S6">
         <v>7.5007170188</v>
       </c>
       <c r="T6">
-        <v>2.9500236697</v>
+        <v>3.7500126808</v>
       </c>
       <c r="U6">
-        <v>0.65038321372</v>
+        <v>0.44889964522</v>
       </c>
       <c r="V6">
-        <v>1.154456098</v>
+        <v>1.1544561515</v>
       </c>
       <c r="W6">
-        <v>1.1544625285</v>
+        <v>1.1544591803</v>
       </c>
       <c r="X6">
-        <v>0.404</v>
+        <v>0.636</v>
       </c>
       <c r="Y6">
-        <v>0.404</v>
+        <v>0.636</v>
       </c>
       <c r="Z6">
-        <v>1763.67059737803</v>
+        <v>1775.824435083063</v>
       </c>
       <c r="AA6">
-        <v>49.483176363792</v>
+        <v>49.48316287495705</v>
       </c>
       <c r="AB6">
-        <v>0.8380114679961363</v>
+        <v>0.8380114666072144</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -976,43 +976,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.368624361</v>
+        <v>29.368541531</v>
       </c>
       <c r="C7">
-        <v>18.418454319</v>
+        <v>21.469323638</v>
       </c>
       <c r="D7">
-        <v>10.950170042</v>
+        <v>7.899217893</v>
       </c>
       <c r="E7">
-        <v>140.10864988</v>
+        <v>133.86563313</v>
       </c>
       <c r="F7">
-        <v>10.221577781</v>
+        <v>16.464594528</v>
       </c>
       <c r="G7">
-        <v>26.580037938</v>
+        <v>26.580027311</v>
       </c>
       <c r="H7">
-        <v>89.737857866</v>
+        <v>92.93001592100001</v>
       </c>
       <c r="I7">
-        <v>10.262090448</v>
+        <v>7.0699745876</v>
       </c>
       <c r="J7">
-        <v>99.99994831399999</v>
+        <v>99.999990509</v>
       </c>
       <c r="K7">
-        <v>0.32738641558</v>
+        <v>0.32738593294</v>
       </c>
       <c r="L7">
-        <v>10.912831298</v>
+        <v>10.912855378</v>
       </c>
       <c r="M7">
-        <v>3.3281136585</v>
+        <v>3.3280829786</v>
       </c>
       <c r="N7">
-        <v>327.38641558</v>
+        <v>327.38593294</v>
       </c>
       <c r="O7">
         <v>274.845</v>
@@ -1024,37 +1024,37 @@
         <v>111.0797623589472</v>
       </c>
       <c r="R7">
-        <v>31.433838271</v>
+        <v>31.433787009</v>
       </c>
       <c r="S7">
         <v>7.5007170188</v>
       </c>
       <c r="T7">
-        <v>2.9501220979</v>
+        <v>3.7500235738</v>
       </c>
       <c r="U7">
-        <v>0.56844328457</v>
+        <v>0.32102923539</v>
       </c>
       <c r="V7">
-        <v>1.0061955461</v>
+        <v>1.0061957583</v>
       </c>
       <c r="W7">
-        <v>1.006226559</v>
+        <v>1.0062014289</v>
       </c>
       <c r="X7">
-        <v>0.434</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.434</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z7">
-        <v>1238.916069408046</v>
+        <v>1249.838329944516</v>
       </c>
       <c r="AA7">
-        <v>15.16125864012264</v>
+        <v>15.16121587996344</v>
       </c>
       <c r="AB7">
-        <v>0.6139627830895366</v>
+        <v>0.6139627648525722</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1062,43 +1062,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-9.947598300599999E-14</v>
+        <v>1.3145040612E-13</v>
       </c>
       <c r="C8">
-        <v>-18.140706007</v>
+        <v>-17.988382111</v>
       </c>
       <c r="D8">
-        <v>18.140706007</v>
+        <v>17.988382111</v>
       </c>
       <c r="E8">
-        <v>201.52218425</v>
+        <v>199.52828132</v>
       </c>
       <c r="F8">
-        <v>9.642094159699999</v>
+        <v>11.63599709</v>
       </c>
       <c r="G8">
-        <v>24.527816377</v>
+        <v>24.507678628</v>
       </c>
       <c r="H8">
-        <v>61.700705376</v>
+        <v>63.56242216</v>
       </c>
       <c r="I8">
-        <v>12.454361253</v>
+        <v>10.612783243</v>
       </c>
       <c r="J8">
-        <v>74.155066629</v>
+        <v>74.17520540300001</v>
       </c>
       <c r="K8">
-        <v>0.40923227008</v>
+        <v>0.4092322795</v>
       </c>
       <c r="L8">
-        <v>12.982006171</v>
+        <v>12.969804998</v>
       </c>
       <c r="M8">
-        <v>8.1405470375E-07</v>
+        <v>5.3158479657E-08</v>
       </c>
       <c r="N8">
-        <v>409.23227008</v>
+        <v>409.2322795</v>
       </c>
       <c r="O8">
         <v>269.61</v>
@@ -1110,37 +1110,37 @@
         <v>171.3802047823756</v>
       </c>
       <c r="R8">
-        <v>40.23716142</v>
+        <v>40.237162444</v>
       </c>
       <c r="S8">
-        <v>5.4256151722</v>
+        <v>7.5006961385</v>
       </c>
       <c r="T8">
-        <v>2.9500020478</v>
+        <v>3.7500000698</v>
       </c>
       <c r="U8">
-        <v>0.30718003517</v>
+        <v>1.5668543405E-07</v>
       </c>
       <c r="V8">
-        <v>0.69757967798</v>
+        <v>0.69776912424</v>
       </c>
       <c r="W8">
-        <v>0.6975801887500001</v>
+        <v>0.69776915699</v>
       </c>
       <c r="X8">
-        <v>0.483</v>
+        <v>0.759</v>
       </c>
       <c r="Y8">
-        <v>0.483</v>
+        <v>0.698</v>
       </c>
       <c r="Z8">
-        <v>742.2436844548619</v>
+        <v>755.9399428020416</v>
       </c>
       <c r="AA8">
-        <v>-5.135348146701744E-14</v>
+        <v>6.785995765538881E-14</v>
       </c>
       <c r="AB8">
-        <v>0.4951012586893481</v>
+        <v>0.4950855135195898</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1148,43 +1148,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1388223697E-11</v>
+        <v>6.6637362295E-10</v>
       </c>
       <c r="C9">
-        <v>-11.446974848</v>
+        <v>-13.886434498</v>
       </c>
       <c r="D9">
-        <v>11.446974848</v>
+        <v>13.886434498</v>
       </c>
       <c r="E9">
-        <v>194.04663023</v>
+        <v>198.48142323</v>
       </c>
       <c r="F9">
-        <v>17.422658812</v>
+        <v>12.987865815</v>
       </c>
       <c r="G9">
-        <v>24.7757226</v>
+        <v>24.775722603</v>
       </c>
       <c r="H9">
-        <v>76.179622016</v>
+        <v>74.184288666</v>
       </c>
       <c r="I9">
-        <v>9.710478778700001</v>
+        <v>11.705812131</v>
       </c>
       <c r="J9">
-        <v>85.890100795</v>
+        <v>85.890100797</v>
       </c>
       <c r="K9">
-        <v>0.39397370278</v>
+        <v>0.39397370282</v>
       </c>
       <c r="L9">
-        <v>13.132456746</v>
+        <v>13.132456748</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>393.97370278</v>
+        <v>393.97370282</v>
       </c>
       <c r="O9">
         <v>283.5550000000001</v>
@@ -1196,37 +1196,37 @@
         <v>171.3802047823757</v>
       </c>
       <c r="R9">
-        <v>38.580112439</v>
+        <v>38.580112444</v>
       </c>
       <c r="S9">
-        <v>7.3795117416</v>
+        <v>7.5004554493</v>
       </c>
       <c r="T9">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="U9">
-        <v>0.53020202787</v>
+        <v>0.26364560595</v>
       </c>
       <c r="V9">
-        <v>0.80797161378</v>
+        <v>0.8079716138</v>
       </c>
       <c r="W9">
-        <v>0.80797160601</v>
+        <v>0.80797160603</v>
       </c>
       <c r="X9">
-        <v>0.38</v>
+        <v>0.595</v>
       </c>
       <c r="Y9">
-        <v>0.38</v>
+        <v>0.595</v>
       </c>
       <c r="Z9">
-        <v>855.9452185747517</v>
+        <v>869.3924669181607</v>
       </c>
       <c r="AA9">
-        <v>5.87905660133928E-12</v>
+        <v>3.44008719111708E-10</v>
       </c>
       <c r="AB9">
-        <v>0.4447697056733424</v>
+        <v>0.4447697056559855</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1234,43 +1234,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.7763568394E-15</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-10.494375101</v>
+        <v>-12.932852895</v>
       </c>
       <c r="D10">
-        <v>10.494375101</v>
+        <v>12.932852895</v>
       </c>
       <c r="E10">
-        <v>192.72673797</v>
+        <v>195.90405986</v>
       </c>
       <c r="F10">
-        <v>19.0475617</v>
+        <v>15.870239816</v>
       </c>
       <c r="G10">
-        <v>25.40106548</v>
+        <v>25.401041057</v>
       </c>
       <c r="H10">
-        <v>89.866571647</v>
+        <v>89.12775198</v>
       </c>
       <c r="I10">
-        <v>10.133428258</v>
+        <v>10.872247591</v>
       </c>
       <c r="J10">
-        <v>99.999999905</v>
+        <v>99.999999571</v>
       </c>
       <c r="K10">
-        <v>0.40406615222</v>
+        <v>0.40406592436</v>
       </c>
       <c r="L10">
-        <v>13.468871686</v>
+        <v>13.468864074</v>
       </c>
       <c r="M10">
-        <v>0.045062142943</v>
+        <v>0.045054813348</v>
       </c>
       <c r="N10">
-        <v>404.06615222</v>
+        <v>404.06592436</v>
       </c>
       <c r="O10">
         <v>297.4999999999999</v>
@@ -1282,37 +1282,37 @@
         <v>171.3802047823757</v>
       </c>
       <c r="R10">
-        <v>39.675365059</v>
+        <v>39.675340302</v>
       </c>
       <c r="S10">
-        <v>5.7133679387</v>
+        <v>5.7280541521</v>
       </c>
       <c r="T10">
-        <v>2.9500001501</v>
+        <v>3.750000164</v>
       </c>
       <c r="U10">
-        <v>0.5052674163</v>
+        <v>0.22597246245</v>
       </c>
       <c r="V10">
-        <v>0.94070399911</v>
+        <v>0.94070399597</v>
       </c>
       <c r="W10">
-        <v>0.94070403427</v>
+        <v>0.94070403118</v>
       </c>
       <c r="X10">
-        <v>0.465</v>
+        <v>0.728</v>
       </c>
       <c r="Y10">
-        <v>0.465</v>
+        <v>0.728</v>
       </c>
       <c r="Z10">
-        <v>977.2469612153252</v>
+        <v>987.1418563325456</v>
       </c>
       <c r="AA10">
-        <v>9.17026454771856E-16</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.4207930583068729</v>
+        <v>0.4207931015852044</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1320,43 +1320,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.167227084</v>
+        <v>20.168285809</v>
       </c>
       <c r="C11">
-        <v>12.395842094</v>
+        <v>9.0685005102</v>
       </c>
       <c r="D11">
-        <v>7.7713849905</v>
+        <v>11.099785299</v>
       </c>
       <c r="E11">
-        <v>200.44872419</v>
+        <v>201.43738605</v>
       </c>
       <c r="F11">
-        <v>11.434294921</v>
+        <v>10.445633061</v>
       </c>
       <c r="G11">
-        <v>26.799374626</v>
+        <v>26.799500512</v>
       </c>
       <c r="H11">
-        <v>87.771059087</v>
+        <v>90.109612924</v>
       </c>
       <c r="I11">
-        <v>12.228544288</v>
+        <v>9.8894385405</v>
       </c>
       <c r="J11">
-        <v>99.99960337500001</v>
+        <v>99.99905146499999</v>
       </c>
       <c r="K11">
-        <v>0.32739005061</v>
+        <v>0.32739600592</v>
       </c>
       <c r="L11">
-        <v>10.91248392</v>
+        <v>10.911882332</v>
       </c>
       <c r="M11">
-        <v>3.4648601412</v>
+        <v>3.4655401325</v>
       </c>
       <c r="N11">
-        <v>327.39005061</v>
+        <v>327.39600592</v>
       </c>
       <c r="O11">
         <v>327.415</v>
@@ -1368,37 +1368,37 @@
         <v>171.3802047823758</v>
       </c>
       <c r="R11">
-        <v>31.4342242</v>
+        <v>31.4348569</v>
       </c>
       <c r="S11">
         <v>7.5007170187</v>
       </c>
       <c r="T11">
-        <v>2.9506634351</v>
+        <v>3.7540177404</v>
       </c>
       <c r="U11">
-        <v>0.45851677518</v>
+        <v>0.15354683042</v>
       </c>
       <c r="V11">
-        <v>0.98567318533</v>
+        <v>0.98567035444</v>
       </c>
       <c r="W11">
-        <v>0.9859577416500001</v>
+        <v>0.98650113606</v>
       </c>
       <c r="X11">
-        <v>0.534</v>
+        <v>0.835</v>
       </c>
       <c r="Y11">
-        <v>0.534</v>
+        <v>0.834</v>
       </c>
       <c r="Z11">
-        <v>1160.036959163018</v>
+        <v>1167.279903061166</v>
       </c>
       <c r="AA11">
-        <v>10.41112930984416</v>
+        <v>10.41167586603816</v>
       </c>
       <c r="AB11">
-        <v>0.4203769186844051</v>
+        <v>0.4203772165042016</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1406,43 +1406,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48.381941299</v>
+        <v>48.381942787</v>
       </c>
       <c r="C12">
-        <v>37.540796437</v>
+        <v>36.934963271</v>
       </c>
       <c r="D12">
-        <v>10.841144862</v>
+        <v>11.446979516</v>
       </c>
       <c r="E12">
-        <v>200.66271753</v>
+        <v>201.6663903</v>
       </c>
       <c r="F12">
-        <v>11.329021023</v>
+        <v>10.325348253</v>
       </c>
       <c r="G12">
-        <v>28.390102184</v>
+        <v>28.390094165</v>
       </c>
       <c r="H12">
-        <v>90.736383848</v>
+        <v>90.338552264</v>
       </c>
       <c r="I12">
-        <v>9.263613472299999</v>
+        <v>9.6614477228</v>
       </c>
       <c r="J12">
-        <v>99.999997321</v>
+        <v>99.99999998600001</v>
       </c>
       <c r="K12">
-        <v>0.3273858609</v>
+        <v>0.32738582451</v>
       </c>
       <c r="L12">
-        <v>10.91286056</v>
+        <v>10.912860804</v>
       </c>
       <c r="M12">
-        <v>4.4647658632</v>
+        <v>4.4647605302</v>
       </c>
       <c r="N12">
-        <v>327.3858609</v>
+        <v>327.38582451</v>
       </c>
       <c r="O12">
         <v>357.33</v>
@@ -1454,37 +1454,37 @@
         <v>171.3802047823758</v>
       </c>
       <c r="R12">
-        <v>31.433779357</v>
+        <v>31.433775492</v>
       </c>
       <c r="S12">
         <v>7.5007170188</v>
       </c>
       <c r="T12">
-        <v>2.9510035711</v>
+        <v>3.754</v>
       </c>
       <c r="U12">
-        <v>0.5741018471</v>
+        <v>0.33553979518</v>
       </c>
       <c r="V12">
-        <v>1.0485957039</v>
+        <v>1.0485957323</v>
       </c>
       <c r="W12">
-        <v>1.048596611</v>
+        <v>1.0485957304</v>
       </c>
       <c r="X12">
-        <v>0.447</v>
+        <v>0.697</v>
       </c>
       <c r="Y12">
-        <v>0.447</v>
+        <v>0.697</v>
       </c>
       <c r="Z12">
-        <v>1397.60011109023</v>
+        <v>1408.54924193903</v>
       </c>
       <c r="AA12">
-        <v>24.97669337619576</v>
+        <v>24.97669414436088</v>
       </c>
       <c r="AB12">
-        <v>0.4270609323362511</v>
+        <v>0.4270608756315247</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1492,43 +1492,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.4531670552E-10</v>
+        <v>4.4157921764E-10</v>
       </c>
       <c r="C13">
-        <v>-7.6413427894</v>
+        <v>-12.473466908</v>
       </c>
       <c r="D13">
-        <v>7.6413427903</v>
+        <v>12.473466908</v>
       </c>
       <c r="E13">
-        <v>306.17390786</v>
+        <v>313.69182952</v>
       </c>
       <c r="F13">
-        <v>23.021304399</v>
+        <v>15.503382741</v>
       </c>
       <c r="G13">
-        <v>24.16398395</v>
+        <v>24.480954767</v>
       </c>
       <c r="H13">
-        <v>51.773450982</v>
+        <v>48.770682625</v>
       </c>
       <c r="I13">
-        <v>6.7149080488</v>
+        <v>10.022259582</v>
       </c>
       <c r="J13">
-        <v>58.488359031</v>
+        <v>58.792942208</v>
       </c>
       <c r="K13">
-        <v>0.38285992483</v>
+        <v>0.38860851505</v>
       </c>
       <c r="L13">
-        <v>12.761997471</v>
+        <v>12.95361692</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>382.85992483</v>
+        <v>388.60851505</v>
       </c>
       <c r="O13">
         <v>374.47</v>
@@ -1540,37 +1540,37 @@
         <v>288.8073821332628</v>
       </c>
       <c r="R13">
-        <v>37.377555238</v>
+        <v>37.999109232</v>
       </c>
       <c r="S13">
-        <v>7.5006450976</v>
+        <v>7.5004468865</v>
       </c>
       <c r="T13">
-        <v>2.951</v>
+        <v>3.754</v>
       </c>
       <c r="U13">
-        <v>0.3342776983</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0.55020233294</v>
+        <v>0.55306755907</v>
       </c>
       <c r="W13">
-        <v>0.5502023257100001</v>
+        <v>0.55306755184</v>
       </c>
       <c r="X13">
-        <v>0.366</v>
+        <v>0.57</v>
       </c>
       <c r="Y13">
-        <v>0.366</v>
+        <v>0.553</v>
       </c>
       <c r="Z13">
-        <v>609.645349935206</v>
+        <v>628.0966686823522</v>
       </c>
       <c r="AA13">
-        <v>4.363862960576448E-10</v>
+        <v>2.279608553144736E-10</v>
       </c>
       <c r="AB13">
-        <v>0.3425771848968606</v>
+        <v>0.3384845519702839</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1578,43 +1578,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-149.39996935</v>
+        <v>-149.40012751</v>
       </c>
       <c r="C14">
-        <v>-162.18515177</v>
+        <v>-161.03490318</v>
       </c>
       <c r="D14">
-        <v>12.785182424</v>
+        <v>11.63477567</v>
       </c>
       <c r="E14">
-        <v>439.2843906</v>
+        <v>436.93504567</v>
       </c>
       <c r="F14">
-        <v>7.1142953593</v>
+        <v>9.463640290000001</v>
       </c>
       <c r="G14">
-        <v>26.045232906</v>
+        <v>26.045217324</v>
       </c>
       <c r="H14">
-        <v>88.465528263</v>
+        <v>89.664640185</v>
       </c>
       <c r="I14">
-        <v>11.53440212</v>
+        <v>10.335359695</v>
       </c>
       <c r="J14">
-        <v>99.999930384</v>
+        <v>99.99999988</v>
       </c>
       <c r="K14">
-        <v>0.32738680788</v>
+        <v>0.32738582605</v>
       </c>
       <c r="L14">
-        <v>10.912860325</v>
+        <v>10.912860804</v>
       </c>
       <c r="M14">
-        <v>2.9970200767</v>
+        <v>2.9970099845</v>
       </c>
       <c r="N14">
-        <v>327.38680788</v>
+        <v>327.38582605</v>
       </c>
       <c r="O14">
         <v>391.61</v>
@@ -1626,37 +1626,37 @@
         <v>406.2345594841499</v>
       </c>
       <c r="R14">
-        <v>31.433879903</v>
+        <v>31.433775656</v>
       </c>
       <c r="S14">
         <v>3.7499999812</v>
       </c>
       <c r="T14">
-        <v>2.9510852759</v>
+        <v>3.7540001219</v>
       </c>
       <c r="U14">
-        <v>0.39150125371</v>
+        <v>0.053861708109</v>
       </c>
       <c r="V14">
-        <v>0.60754141348</v>
+        <v>0.6075417145300001</v>
       </c>
       <c r="W14">
-        <v>0.60756112899</v>
+        <v>0.60754174522</v>
       </c>
       <c r="X14">
-        <v>0.37</v>
+        <v>0.575</v>
       </c>
       <c r="Y14">
-        <v>0.37</v>
+        <v>0.575</v>
       </c>
       <c r="Z14">
-        <v>-169.6471750381614</v>
+        <v>-155.3267716130205</v>
       </c>
       <c r="AA14">
-        <v>-77.126240177244</v>
+        <v>-77.1263218257624</v>
       </c>
       <c r="AB14">
-        <v>0.04815962334849495</v>
+        <v>0.04815962126310573</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1664,43 +1664,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.944490664</v>
+        <v>26.94448966</v>
       </c>
       <c r="C15">
-        <v>22.512003631</v>
+        <v>21.240728306</v>
       </c>
       <c r="D15">
-        <v>4.432487033</v>
+        <v>5.7037613538</v>
       </c>
       <c r="E15">
-        <v>245.02926296</v>
+        <v>247.31489222</v>
       </c>
       <c r="F15">
-        <v>23.153815538</v>
+        <v>20.86818628</v>
       </c>
       <c r="G15">
-        <v>30.35620711</v>
+        <v>30.356217105</v>
       </c>
       <c r="H15">
-        <v>96.152526298</v>
+        <v>95.13816237</v>
       </c>
       <c r="I15">
-        <v>3.8474733656</v>
+        <v>4.8618335197</v>
       </c>
       <c r="J15">
-        <v>99.999999664</v>
+        <v>99.99999588999999</v>
       </c>
       <c r="K15">
-        <v>0.3273858287</v>
+        <v>0.32738587782</v>
       </c>
       <c r="L15">
-        <v>10.912860745</v>
+        <v>10.912860082</v>
       </c>
       <c r="M15">
-        <v>5.7289440139</v>
+        <v>5.7289511764</v>
       </c>
       <c r="N15">
-        <v>327.3858287</v>
+        <v>327.38587782</v>
       </c>
       <c r="O15">
         <v>394.0500000000001</v>
@@ -1712,37 +1712,37 @@
         <v>228.5069397098343</v>
       </c>
       <c r="R15">
-        <v>31.433775937</v>
+        <v>31.433781153</v>
       </c>
       <c r="S15">
         <v>7.5007170188</v>
       </c>
       <c r="T15">
-        <v>2.9510004542</v>
+        <v>3.7540063014</v>
       </c>
       <c r="U15">
-        <v>0.63099022299</v>
+        <v>0.42722058172</v>
       </c>
       <c r="V15">
-        <v>1.000790211</v>
+        <v>1.0007901733</v>
       </c>
       <c r="W15">
-        <v>1.0007903344</v>
+        <v>1.0007917177</v>
       </c>
       <c r="X15">
-        <v>0.369</v>
+        <v>0.573</v>
       </c>
       <c r="Y15">
-        <v>0.369</v>
+        <v>0.573</v>
       </c>
       <c r="Z15">
-        <v>1244.853839542669</v>
+        <v>1259.270418122113</v>
       </c>
       <c r="AA15">
-        <v>13.90982386038336</v>
+        <v>13.9098233420784</v>
       </c>
       <c r="AB15">
-        <v>0.3129721840261556</v>
+        <v>0.3129723128437313</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1750,43 +1750,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>212.07919637</v>
+        <v>216.91248056</v>
       </c>
       <c r="C16">
-        <v>203.04225528</v>
+        <v>205.61442512</v>
       </c>
       <c r="D16">
-        <v>9.036941088700001</v>
+        <v>11.298055437</v>
       </c>
       <c r="E16">
-        <v>78.912101998</v>
+        <v>80.036542084</v>
       </c>
       <c r="F16">
-        <v>11.05536904</v>
+        <v>9.930928954400001</v>
       </c>
       <c r="G16">
-        <v>25.877432414</v>
+        <v>21.043823899</v>
       </c>
       <c r="H16">
-        <v>88.658210305</v>
+        <v>89.79520889299999</v>
       </c>
       <c r="I16">
-        <v>11.341652153</v>
+        <v>10.204791085</v>
       </c>
       <c r="J16">
-        <v>99.999862458</v>
+        <v>99.99999997800001</v>
       </c>
       <c r="K16">
-        <v>0.32738758314</v>
+        <v>0.32738582436</v>
       </c>
       <c r="L16">
-        <v>10.912874414</v>
+        <v>10.912860808</v>
       </c>
       <c r="M16">
-        <v>2.8935703709</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>327.38758314</v>
+        <v>327.38582436</v>
       </c>
       <c r="O16">
         <v>396.49</v>
@@ -1798,37 +1798,37 @@
         <v>50.77931993551871</v>
       </c>
       <c r="R16">
-        <v>31.433962282</v>
+        <v>31.433775476</v>
       </c>
       <c r="S16">
         <v>7.5007170188</v>
       </c>
       <c r="T16">
-        <v>2.9510949349</v>
+        <v>3.754</v>
       </c>
       <c r="U16">
-        <v>0.80194868596</v>
+        <v>0.69538033965</v>
       </c>
       <c r="V16">
-        <v>1.413639314</v>
+        <v>1.4244188314</v>
       </c>
       <c r="W16">
-        <v>1.4136676788</v>
+        <v>1.4244188224</v>
       </c>
       <c r="X16">
-        <v>0.28</v>
+        <v>0.434</v>
       </c>
       <c r="Y16">
-        <v>0.28</v>
+        <v>0.434</v>
       </c>
       <c r="Z16">
-        <v>2688.633254356975</v>
+        <v>2720.627476334911</v>
       </c>
       <c r="AA16">
-        <v>109.4837643340488</v>
+        <v>111.9788989642944</v>
       </c>
       <c r="AB16">
-        <v>0.8338283149193101</v>
+        <v>0.8701428988389948</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1836,43 +1836,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>209.57420636</v>
+        <v>209.57436912</v>
       </c>
       <c r="C17">
-        <v>202.06222666</v>
+        <v>200.84485013</v>
       </c>
       <c r="D17">
-        <v>7.5119797076</v>
+        <v>8.7295189859</v>
       </c>
       <c r="E17">
-        <v>78.202885608</v>
+        <v>77.227153023</v>
       </c>
       <c r="F17">
-        <v>11.667709271</v>
+        <v>12.643441856</v>
       </c>
       <c r="G17">
-        <v>25.934010082</v>
+        <v>25.934024789</v>
       </c>
       <c r="H17">
-        <v>87.745877655</v>
+        <v>89.938972056</v>
       </c>
       <c r="I17">
-        <v>12.25408668</v>
+        <v>10.060943286</v>
       </c>
       <c r="J17">
-        <v>99.99996433600001</v>
+        <v>99.99991534199999</v>
       </c>
       <c r="K17">
-        <v>0.32738582608</v>
+        <v>0.32738703931</v>
       </c>
       <c r="L17">
-        <v>10.912860819</v>
+        <v>10.912872201</v>
       </c>
       <c r="M17">
-        <v>2.9284362762</v>
+        <v>2.9284339469</v>
       </c>
       <c r="N17">
-        <v>327.38582608</v>
+        <v>327.38703931</v>
       </c>
       <c r="O17">
         <v>393.9449999999999</v>
@@ -1884,37 +1884,37 @@
         <v>50.77931993551871</v>
       </c>
       <c r="R17">
-        <v>31.433775659</v>
+        <v>31.433904128</v>
       </c>
       <c r="S17">
         <v>7.5007170188</v>
       </c>
       <c r="T17">
-        <v>2.9510000775</v>
+        <v>3.7540661093</v>
       </c>
       <c r="U17">
-        <v>0.78826521592</v>
+        <v>0.6724268664600001</v>
       </c>
       <c r="V17">
-        <v>1.4080541447</v>
+        <v>1.4080540468</v>
       </c>
       <c r="W17">
-        <v>1.4080541654</v>
+        <v>1.408070077</v>
       </c>
       <c r="X17">
-        <v>0.298</v>
+        <v>0.461</v>
       </c>
       <c r="Y17">
-        <v>0.298</v>
+        <v>0.461</v>
       </c>
       <c r="Z17">
-        <v>2667.791841163145</v>
+        <v>2685.274710131883</v>
       </c>
       <c r="AA17">
-        <v>108.1905882912864</v>
+        <v>108.1906723145088</v>
       </c>
       <c r="AB17">
-        <v>0.8346542159527719</v>
+        <v>0.834654213082339</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1922,43 +1922,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>206.89187515</v>
+        <v>206.89189344</v>
       </c>
       <c r="C18">
-        <v>193.83193813</v>
+        <v>198.70398109</v>
       </c>
       <c r="D18">
-        <v>13.059937029</v>
+        <v>8.187912348999999</v>
       </c>
       <c r="E18">
-        <v>80.267260354</v>
+        <v>75.915210481</v>
       </c>
       <c r="F18">
-        <v>9.5064583662</v>
+        <v>13.858508238</v>
       </c>
       <c r="G18">
-        <v>26.168240081</v>
+        <v>26.168242192</v>
       </c>
       <c r="H18">
-        <v>91.132561439</v>
+        <v>90.612566237</v>
       </c>
       <c r="I18">
-        <v>8.8674144093</v>
+        <v>9.3874012999</v>
       </c>
       <c r="J18">
-        <v>99.99997584899999</v>
+        <v>99.999967537</v>
       </c>
       <c r="K18">
-        <v>0.32738614781</v>
+        <v>0.32738626139</v>
       </c>
       <c r="L18">
-        <v>10.912858984</v>
+        <v>10.912857364</v>
       </c>
       <c r="M18">
-        <v>3.0729783054</v>
+        <v>3.0729812307</v>
       </c>
       <c r="N18">
-        <v>327.38614781</v>
+        <v>327.38626139</v>
       </c>
       <c r="O18">
         <v>391.4</v>
@@ -1970,37 +1970,37 @@
         <v>50.77931993551872</v>
       </c>
       <c r="R18">
-        <v>31.433809804</v>
+        <v>31.433821887</v>
       </c>
       <c r="S18">
         <v>7.5007170188</v>
       </c>
       <c r="T18">
-        <v>2.9510281561</v>
+        <v>3.754039627</v>
       </c>
       <c r="U18">
-        <v>0.80648571723</v>
+        <v>0.70107740752</v>
       </c>
       <c r="V18">
-        <v>1.4020726544</v>
+        <v>1.402072617</v>
       </c>
       <c r="W18">
-        <v>1.4020802333</v>
+        <v>1.4020838571</v>
       </c>
       <c r="X18">
-        <v>0.271</v>
+        <v>0.419</v>
       </c>
       <c r="Y18">
-        <v>0.271</v>
+        <v>0.419</v>
       </c>
       <c r="Z18">
-        <v>2649.852677508089</v>
+        <v>2668.480304618622</v>
       </c>
       <c r="AA18">
-        <v>106.805861627436</v>
+        <v>106.8058710694656</v>
       </c>
       <c r="AB18">
-        <v>0.8355388353343223</v>
+        <v>0.8355388363851298</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2008,43 +2008,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>206.31129817</v>
+        <v>206.31129044</v>
       </c>
       <c r="C19">
-        <v>196.49520738</v>
+        <v>198.12198175</v>
       </c>
       <c r="D19">
-        <v>9.816090791100001</v>
+        <v>8.189308691200001</v>
       </c>
       <c r="E19">
-        <v>79.472307116</v>
+        <v>76.340354232</v>
       </c>
       <c r="F19">
-        <v>10.513091034</v>
+        <v>13.645043919</v>
       </c>
       <c r="G19">
-        <v>26.292088036</v>
+        <v>26.292087131</v>
       </c>
       <c r="H19">
-        <v>88.895397468</v>
+        <v>90.400576884</v>
       </c>
       <c r="I19">
-        <v>11.104598753</v>
+        <v>9.5994230079</v>
       </c>
       <c r="J19">
-        <v>99.999996221</v>
+        <v>99.99999989200001</v>
       </c>
       <c r="K19">
-        <v>0.3273858724</v>
+        <v>0.32738582569</v>
       </c>
       <c r="L19">
-        <v>10.912859943</v>
+        <v>10.912860779</v>
       </c>
       <c r="M19">
-        <v>3.1495673179</v>
+        <v>3.1495659216</v>
       </c>
       <c r="N19">
-        <v>327.3858724</v>
+        <v>327.38582569</v>
       </c>
       <c r="O19">
         <v>391.155</v>
@@ -2056,37 +2056,37 @@
         <v>50.77931993551873</v>
       </c>
       <c r="R19">
-        <v>31.433780579</v>
+        <v>31.433775618</v>
       </c>
       <c r="S19">
         <v>7.5007170188</v>
       </c>
       <c r="T19">
-        <v>2.9510051219</v>
+        <v>3.7540001314</v>
       </c>
       <c r="U19">
-        <v>0.8102381052099999</v>
+        <v>0.70732953707</v>
       </c>
       <c r="V19">
-        <v>1.4007781594</v>
+        <v>1.4007781767</v>
       </c>
       <c r="W19">
-        <v>1.4007797057</v>
+        <v>1.4007782153</v>
       </c>
       <c r="X19">
-        <v>0.266</v>
+        <v>0.41</v>
       </c>
       <c r="Y19">
-        <v>0.266</v>
+        <v>0.41</v>
       </c>
       <c r="Z19">
-        <v>2646.326447264314</v>
+        <v>2665.225666276168</v>
       </c>
       <c r="AA19">
-        <v>106.5061445672808</v>
+        <v>106.5061405767456</v>
       </c>
       <c r="AB19">
-        <v>0.8337773664372654</v>
+        <v>0.8337773656551951</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2094,43 +2094,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>205.95258669</v>
+        <v>205.94924292</v>
       </c>
       <c r="C20">
-        <v>196.97449585</v>
+        <v>194.68819356</v>
       </c>
       <c r="D20">
-        <v>8.9780908413</v>
+        <v>11.261049359</v>
       </c>
       <c r="E20">
-        <v>77.974113743</v>
+        <v>87.93861310200001</v>
       </c>
       <c r="F20">
-        <v>12.222963837</v>
+        <v>2.2584644788</v>
       </c>
       <c r="G20">
-        <v>26.197819804</v>
+        <v>26.197455235</v>
       </c>
       <c r="H20">
-        <v>89.763570605</v>
+        <v>82.08573810199999</v>
       </c>
       <c r="I20">
-        <v>10.234900514</v>
+        <v>17.914261788</v>
       </c>
       <c r="J20">
-        <v>99.99847112</v>
+        <v>99.99999989</v>
       </c>
       <c r="K20">
-        <v>0.32740634796</v>
+        <v>0.32738582577</v>
       </c>
       <c r="L20">
-        <v>10.912666938</v>
+        <v>10.912860791</v>
       </c>
       <c r="M20">
-        <v>3.0914526134</v>
+        <v>3.0910334019</v>
       </c>
       <c r="N20">
-        <v>327.40634796</v>
+        <v>327.38582577</v>
       </c>
       <c r="O20">
         <v>390.91</v>
@@ -2142,37 +2142,37 @@
         <v>50.77931993551872</v>
       </c>
       <c r="R20">
-        <v>31.435955193</v>
+        <v>31.433775626</v>
       </c>
       <c r="S20">
-        <v>7.5007170187</v>
+        <v>7.5007170188</v>
       </c>
       <c r="T20">
-        <v>2.9530795353</v>
+        <v>3.7540001391</v>
       </c>
       <c r="U20">
-        <v>0.7212824638999999</v>
+        <v>0.57074348288</v>
       </c>
       <c r="V20">
-        <v>1.3999638861</v>
+        <v>1.3999708107</v>
       </c>
       <c r="W20">
-        <v>1.4005186394</v>
+        <v>1.3999708433</v>
       </c>
       <c r="X20">
-        <v>0.391</v>
+        <v>0.601</v>
       </c>
       <c r="Y20">
-        <v>0.39</v>
+        <v>0.601</v>
       </c>
       <c r="Z20">
-        <v>2633.797498829209</v>
+        <v>2647.553572980227</v>
       </c>
       <c r="AA20">
-        <v>106.3209633528456</v>
+        <v>106.3192371650208</v>
       </c>
       <c r="AB20">
-        <v>0.8318990912985913</v>
+        <v>0.8318988778917287</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2183,40 +2183,40 @@
         <v>217.17553905</v>
       </c>
       <c r="C21">
-        <v>206.36912489</v>
+        <v>205.91761421</v>
       </c>
       <c r="D21">
-        <v>10.806414161</v>
+        <v>11.257924838</v>
       </c>
       <c r="E21">
-        <v>58.715892157</v>
+        <v>58.553956888</v>
       </c>
       <c r="F21">
-        <v>9.1266503698</v>
+        <v>9.288585639200001</v>
       </c>
       <c r="G21">
-        <v>26.345694148</v>
+        <v>26.345694147</v>
       </c>
       <c r="H21">
-        <v>88.499288806</v>
+        <v>89.11273475599999</v>
       </c>
       <c r="I21">
-        <v>11.500711084</v>
+        <v>10.887265136</v>
       </c>
       <c r="J21">
-        <v>99.99999989</v>
+        <v>99.99999989200001</v>
       </c>
       <c r="K21">
-        <v>0.32738582566</v>
+        <v>0.32738582565</v>
       </c>
       <c r="L21">
-        <v>10.912860775</v>
+        <v>10.912860773</v>
       </c>
       <c r="M21">
-        <v>3.1827530788</v>
+        <v>3.1827530803</v>
       </c>
       <c r="N21">
-        <v>327.38582566</v>
+        <v>327.38582565</v>
       </c>
       <c r="O21">
         <v>379.93</v>
@@ -2228,37 +2228,37 @@
         <v>28.56336746372929</v>
       </c>
       <c r="R21">
-        <v>31.433775614</v>
+        <v>31.433775613</v>
       </c>
       <c r="S21">
         <v>7.5007170188</v>
       </c>
       <c r="T21">
-        <v>2.9530001604</v>
+        <v>3.7540001919</v>
       </c>
       <c r="U21">
-        <v>0.67393724448</v>
+        <v>0.49898696871</v>
       </c>
       <c r="V21">
-        <v>1.425005451</v>
+        <v>1.4250054511</v>
       </c>
       <c r="W21">
-        <v>1.4250054917</v>
+        <v>1.4250054932</v>
       </c>
       <c r="X21">
-        <v>0.465</v>
+        <v>0.714</v>
       </c>
       <c r="Y21">
-        <v>0.465</v>
+        <v>0.714</v>
       </c>
       <c r="Z21">
-        <v>2717.496256417613</v>
+        <v>2728.43537551725</v>
       </c>
       <c r="AA21">
         <v>112.114700279172</v>
       </c>
       <c r="AB21">
-        <v>0.9232318845215789</v>
+        <v>0.9232318845205562</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2266,43 +2266,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>228.93533474</v>
+        <v>228.93541757</v>
       </c>
       <c r="C22">
-        <v>217.74848865</v>
+        <v>216.45022871</v>
       </c>
       <c r="D22">
-        <v>11.186846095</v>
+        <v>12.48518886</v>
       </c>
       <c r="E22">
-        <v>34.48187959</v>
+        <v>39.139434352</v>
       </c>
       <c r="F22">
-        <v>11.006127883</v>
+        <v>6.3485731208</v>
       </c>
       <c r="G22">
-        <v>25.960456996</v>
+        <v>25.960465965</v>
       </c>
       <c r="H22">
-        <v>90.75917476399999</v>
+        <v>87.39987096999999</v>
       </c>
       <c r="I22">
-        <v>9.240816091599999</v>
+        <v>12.60008427</v>
       </c>
       <c r="J22">
-        <v>99.999990856</v>
+        <v>99.99995524000001</v>
       </c>
       <c r="K22">
-        <v>0.32738596175</v>
+        <v>0.32738649087</v>
       </c>
       <c r="L22">
-        <v>10.912861223</v>
+        <v>10.91286296</v>
       </c>
       <c r="M22">
-        <v>2.9447355168</v>
+        <v>2.9447393076</v>
       </c>
       <c r="N22">
-        <v>327.38596175</v>
+        <v>327.38649087</v>
       </c>
       <c r="O22">
         <v>368.9499999999999</v>
@@ -2314,37 +2314,37 @@
         <v>6.34741499193984</v>
       </c>
       <c r="R22">
-        <v>31.433790069</v>
+        <v>31.433846251</v>
       </c>
       <c r="S22">
         <v>7.5007170188</v>
       </c>
       <c r="T22">
-        <v>2.9530101463</v>
+        <v>3.7540506157</v>
       </c>
       <c r="U22">
-        <v>0.69810926803</v>
+        <v>0.53682356649</v>
       </c>
       <c r="V22">
-        <v>1.4512297105</v>
+        <v>1.4512295601</v>
       </c>
       <c r="W22">
-        <v>1.451232326</v>
+        <v>1.4512421179</v>
       </c>
       <c r="X22">
-        <v>0.438</v>
+        <v>0.672</v>
       </c>
       <c r="Y22">
-        <v>0.438</v>
+        <v>0.672</v>
       </c>
       <c r="Z22">
-        <v>2810.283244377049</v>
+        <v>2822.368410013982</v>
       </c>
       <c r="AA22">
-        <v>118.1855772061776</v>
+        <v>118.1856199663368</v>
       </c>
       <c r="AB22">
-        <v>1.019161233826299</v>
+        <v>1.019161232777317</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2352,43 +2352,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>194.79487167</v>
+        <v>194.79487165</v>
       </c>
       <c r="C23">
-        <v>181.61869302</v>
+        <v>182.69488749</v>
       </c>
       <c r="D23">
-        <v>13.17617865</v>
+        <v>12.09998416</v>
       </c>
       <c r="E23">
-        <v>34.17808901</v>
+        <v>37.354852544</v>
       </c>
       <c r="F23">
-        <v>10.730614669</v>
+        <v>7.5538511345</v>
       </c>
       <c r="G23">
-        <v>26.060200421</v>
+        <v>26.06020042</v>
       </c>
       <c r="H23">
-        <v>92.473017552</v>
+        <v>88.220059545</v>
       </c>
       <c r="I23">
-        <v>7.5269823299</v>
+        <v>11.779940344</v>
       </c>
       <c r="J23">
-        <v>99.999999882</v>
+        <v>99.99999988899999</v>
       </c>
       <c r="K23">
-        <v>0.32738582598</v>
+        <v>0.32738582589</v>
       </c>
       <c r="L23">
-        <v>10.912860813</v>
+        <v>10.912860804</v>
       </c>
       <c r="M23">
-        <v>3.0062560139</v>
+        <v>3.0062560218</v>
       </c>
       <c r="N23">
-        <v>327.38582598</v>
+        <v>327.38582589</v>
       </c>
       <c r="O23">
         <v>334.3300000000001</v>
@@ -2400,37 +2400,37 @@
         <v>6.347414991939844</v>
       </c>
       <c r="R23">
-        <v>31.433775648</v>
+        <v>31.433775638</v>
       </c>
       <c r="S23">
         <v>7.5007170188</v>
       </c>
       <c r="T23">
-        <v>2.9530000655</v>
+        <v>3.7540000865</v>
       </c>
       <c r="U23">
-        <v>0.82362933031</v>
+        <v>0.72979678034</v>
       </c>
       <c r="V23">
         <v>1.3750965627</v>
       </c>
       <c r="W23">
-        <v>1.375096583</v>
+        <v>1.3750965894</v>
       </c>
       <c r="X23">
-        <v>0.243</v>
+        <v>0.372</v>
       </c>
       <c r="Y23">
-        <v>0.243</v>
+        <v>0.372</v>
       </c>
       <c r="Z23">
-        <v>2556.067155396021</v>
+        <v>2576.026995511043</v>
       </c>
       <c r="AA23">
-        <v>100.5609045509208</v>
+        <v>100.560904540596</v>
       </c>
       <c r="AB23">
-        <v>1.024331235755662</v>
+        <v>1.024331235755484</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2438,43 +2438,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>160.6325824</v>
+        <v>160.63257001</v>
       </c>
       <c r="C24">
-        <v>150.03972992</v>
+        <v>149.44756054</v>
       </c>
       <c r="D24">
-        <v>10.592852479</v>
+        <v>11.18500947</v>
       </c>
       <c r="E24">
-        <v>37.28330909</v>
+        <v>36.237342778</v>
       </c>
       <c r="F24">
-        <v>7.0460907939</v>
+        <v>8.0920571058</v>
       </c>
       <c r="G24">
-        <v>26.181807264</v>
+        <v>26.181805843</v>
       </c>
       <c r="H24">
-        <v>86.205153727</v>
+        <v>87.843290837</v>
       </c>
       <c r="I24">
-        <v>13.794840466</v>
+        <v>12.156709051</v>
       </c>
       <c r="J24">
-        <v>99.99999419300001</v>
+        <v>99.999999888</v>
       </c>
       <c r="K24">
-        <v>0.32738590215</v>
+        <v>0.32738582578</v>
       </c>
       <c r="L24">
-        <v>10.912860084</v>
+        <v>10.912860793</v>
       </c>
       <c r="M24">
-        <v>3.0813618343</v>
+        <v>3.0813602467</v>
       </c>
       <c r="N24">
-        <v>327.38590215</v>
+        <v>327.38582578</v>
       </c>
       <c r="O24">
         <v>299.71</v>
@@ -2486,37 +2486,37 @@
         <v>6.347414991939842</v>
       </c>
       <c r="R24">
-        <v>31.433783739</v>
+        <v>31.433775627</v>
       </c>
       <c r="S24">
         <v>7.5007170188</v>
       </c>
       <c r="T24">
-        <v>2.9530066352</v>
+        <v>3.7540000922</v>
       </c>
       <c r="U24">
-        <v>0.8311605968</v>
+        <v>0.74170535847</v>
       </c>
       <c r="V24">
-        <v>1.2989146041</v>
+        <v>1.2989146301</v>
       </c>
       <c r="W24">
-        <v>1.2989166837</v>
+        <v>1.2989146611</v>
       </c>
       <c r="X24">
-        <v>0.219</v>
+        <v>0.336</v>
       </c>
       <c r="Y24">
-        <v>0.219</v>
+        <v>0.336</v>
       </c>
       <c r="Z24">
-        <v>2288.86634980164</v>
+        <v>2309.788238995336</v>
       </c>
       <c r="AA24">
-        <v>82.924964338176</v>
+        <v>82.9249579419624</v>
       </c>
       <c r="AB24">
-        <v>1.029810199196704</v>
+        <v>1.02981019843236</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2524,43 +2524,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>130.68555263</v>
+        <v>130.68527892</v>
       </c>
       <c r="C25">
-        <v>119.68141414</v>
+        <v>121.29355337</v>
       </c>
       <c r="D25">
-        <v>11.004138495</v>
+        <v>9.3917255491</v>
       </c>
       <c r="E25">
-        <v>53.106293779</v>
+        <v>56.053814008</v>
       </c>
       <c r="F25">
-        <v>13.027544968</v>
+        <v>10.08002474</v>
       </c>
       <c r="G25">
-        <v>25.899734023</v>
+        <v>25.899705196</v>
       </c>
       <c r="H25">
-        <v>92.597558061</v>
+        <v>88.03792742900001</v>
       </c>
       <c r="I25">
-        <v>7.4023067607</v>
+        <v>11.962054374</v>
       </c>
       <c r="J25">
-        <v>99.99986482200001</v>
+        <v>99.999981803</v>
       </c>
       <c r="K25">
-        <v>0.32738784774</v>
+        <v>0.32738609937</v>
       </c>
       <c r="L25">
-        <v>10.912872747</v>
+        <v>10.912862508</v>
       </c>
       <c r="M25">
-        <v>2.9073071803</v>
+        <v>2.9072996676</v>
       </c>
       <c r="N25">
-        <v>327.38784774</v>
+        <v>327.38609937</v>
       </c>
       <c r="O25">
         <v>291.285</v>
@@ -2572,37 +2572,37 @@
         <v>28.56336746372928</v>
       </c>
       <c r="R25">
-        <v>31.433990224</v>
+        <v>31.433804663</v>
       </c>
       <c r="S25">
         <v>7.5007170188</v>
       </c>
       <c r="T25">
-        <v>2.9531154187</v>
+        <v>3.7540149807</v>
       </c>
       <c r="U25">
-        <v>0.83036313672</v>
+        <v>0.74082641984</v>
       </c>
       <c r="V25">
-        <v>1.2321315107</v>
+        <v>1.2321320008</v>
       </c>
       <c r="W25">
-        <v>1.2321653934</v>
+        <v>1.2321365789</v>
       </c>
       <c r="X25">
-        <v>0.209</v>
+        <v>0.319</v>
       </c>
       <c r="Y25">
-        <v>0.209</v>
+        <v>0.319</v>
       </c>
       <c r="Z25">
-        <v>2051.871282754746</v>
+        <v>2073.226383754088</v>
       </c>
       <c r="AA25">
-        <v>67.4651096897112</v>
+        <v>67.46496838966081</v>
       </c>
       <c r="AB25">
-        <v>0.9388928132058507</v>
+        <v>0.9388928217566683</v>
       </c>
     </row>
   </sheetData>
